--- a/EDC23通讯协议v0.1.xlsx
+++ b/EDC23通讯协议v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\EDC231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2664B5-C490-4362-9763-2EF008D944D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7F3B2-B97F-4FE9-866F-7D353A559F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D0653F0-A5D9-46B6-BABD-EAEF7DE884CD}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6951D11E-7A7E-4D16-9709-12C864C21FBB}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -769,7 +769,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
@@ -782,8 +784,8 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
+      <c r="A7" s="2">
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
@@ -797,7 +799,9 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
@@ -810,8 +814,8 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
+      <c r="A9" s="2">
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -825,7 +829,9 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -838,8 +844,8 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>5</v>
+      <c r="A11" s="2">
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -853,7 +859,9 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -869,8 +877,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>6</v>
+      <c r="A13" s="2">
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>37</v>
@@ -884,7 +892,9 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -897,7 +907,9 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -910,7 +922,9 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -923,7 +937,9 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
@@ -936,7 +952,9 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -952,8 +970,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>7</v>
+      <c r="A19" s="2">
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
@@ -967,8 +985,8 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>8</v>
+      <c r="A20" s="2">
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
@@ -982,8 +1000,8 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>9</v>
+      <c r="A21" s="2">
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -997,8 +1015,8 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>10</v>
+      <c r="A22" s="2">
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1012,8 +1030,8 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>11</v>
+      <c r="A23" s="2">
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -1027,7 +1045,9 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>12</v>
+      <c r="A25" s="2">
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>51</v>
@@ -1055,7 +1075,9 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1068,8 +1090,8 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>13</v>
+      <c r="A27" s="2">
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>53</v>
@@ -1083,8 +1105,8 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>14</v>
+      <c r="A28" s="2">
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -1118,8 +1140,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>15</v>
+      <c r="A29" s="2">
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
@@ -1133,8 +1155,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>16</v>
+      <c r="A30" s="2">
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -1148,8 +1170,8 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>17</v>
+      <c r="A31" s="2">
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>18</v>
@@ -1163,8 +1185,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>18</v>
+      <c r="A32" s="2">
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -1179,18 +1201,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -1200,15 +1219,18 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC23通讯协议v0.1.xlsx
+++ b/EDC23通讯协议v0.1.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12E7F20-2C56-491B-86EA-9179DA3D005F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C8434-D6F4-4810-9F5F-1F4255C074F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{1D0653F0-A5D9-46B6-BABD-EAEF7DE884CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -136,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小车中心金矿1强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小车中心金矿2强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信息有效为1，无效为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +224,14 @@
   </si>
   <si>
     <t>第一回合车辆需返回的停车点位置Y（低8位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车中心金矿1强度（从高位到低位32int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车中心金矿2强度（从高位到低位32int）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,8 +306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6951D11E-7A7E-4D16-9709-12C864C21FBB}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,16 +701,16 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" t="s">
         <v>21</v>
       </c>
@@ -722,39 +719,39 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
@@ -762,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -772,465 +769,551 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B14:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I13"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC23通讯协议v0.1.xlsx
+++ b/EDC23通讯协议v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C8434-D6F4-4810-9F5F-1F4255C074F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245EDA7-96A7-442B-AB11-6A8EDCC91F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{1D0653F0-A5D9-46B6-BABD-EAEF7DE884CD}"/>
   </bookViews>
@@ -307,13 +307,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6951D11E-7A7E-4D16-9709-12C864C21FBB}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -701,16 +701,16 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>21</v>
       </c>
@@ -719,25 +719,25 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,11 +747,11 @@
       <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
@@ -769,192 +769,192 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" t="s">
         <v>26</v>
       </c>
@@ -963,91 +963,91 @@
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" t="s">
         <v>28</v>
       </c>
@@ -1056,136 +1056,136 @@
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -1226,64 +1226,85 @@
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B25:I25"/>
     <mergeCell ref="B14:I17"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B8:I8"/>
@@ -1293,27 +1314,6 @@
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I13"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
